--- a/実施結果のスクリーンショット.xlsx
+++ b/実施結果のスクリーンショット.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="120" yWindow="105" windowWidth="28680" windowHeight="12570"/>
   </bookViews>
   <sheets>
-    <sheet name="水が左側の壁を抜けた" sheetId="1" r:id="rId1"/>
+    <sheet name="実行結果_divByTotalVol_1" sheetId="2" r:id="rId1"/>
+    <sheet name="水が左側の壁を抜けた" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -189,6 +190,49 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>121547</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>84464</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="476250"/>
+          <a:ext cx="18219047" cy="10085714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1108,9 +1152,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:CB224"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
   <sheetData>
